--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H2">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I2">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J2">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>765.7159602147839</v>
+        <v>3.318117567128</v>
       </c>
       <c r="R2">
-        <v>6891.443641933055</v>
+        <v>29.863058104152</v>
       </c>
       <c r="S2">
-        <v>0.4055619758246336</v>
+        <v>0.006160141662483218</v>
       </c>
       <c r="T2">
-        <v>0.4055619758246335</v>
+        <v>0.006160141662483219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H3">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I3">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J3">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>769.3031680599875</v>
+        <v>270.4890910636227</v>
       </c>
       <c r="R3">
-        <v>6923.728512539887</v>
+        <v>2434.401819572604</v>
       </c>
       <c r="S3">
-        <v>0.4074619428842026</v>
+        <v>0.5021675951495789</v>
       </c>
       <c r="T3">
-        <v>0.4074619428842026</v>
+        <v>0.502167595149579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H4">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I4">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J4">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>36.94177024158355</v>
+        <v>20.809338171391</v>
       </c>
       <c r="R4">
-        <v>332.475932174252</v>
+        <v>187.284043542519</v>
       </c>
       <c r="S4">
-        <v>0.01956623357495874</v>
+        <v>0.03863289001819236</v>
       </c>
       <c r="T4">
-        <v>0.01956623357495874</v>
+        <v>0.03863289001819237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.690216</v>
       </c>
       <c r="I5">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J5">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>100.734284883456</v>
+        <v>1.241506919744</v>
       </c>
       <c r="R5">
-        <v>906.608563951104</v>
+        <v>11.173562277696</v>
       </c>
       <c r="S5">
-        <v>0.05335398206817624</v>
+        <v>0.00230487869879663</v>
       </c>
       <c r="T5">
-        <v>0.05335398206817624</v>
+        <v>0.00230487869879663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.690216</v>
       </c>
       <c r="I6">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J6">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>101.2062024557547</v>
@@ -818,10 +818,10 @@
         <v>910.855822101792</v>
       </c>
       <c r="S6">
-        <v>0.05360393352928217</v>
+        <v>0.1878910350934397</v>
       </c>
       <c r="T6">
-        <v>0.05360393352928216</v>
+        <v>0.1878910350934397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.690216</v>
       </c>
       <c r="I7">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J7">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>4.859899755218667</v>
+        <v>7.786022288967999</v>
       </c>
       <c r="R7">
-        <v>43.739097796968</v>
+        <v>70.07420060071199</v>
       </c>
       <c r="S7">
-        <v>0.002574049189837013</v>
+        <v>0.01445488272099085</v>
       </c>
       <c r="T7">
-        <v>0.002574049189837013</v>
+        <v>0.01445488272099085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H8">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I8">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J8">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>53.229093066432</v>
+        <v>1.506840637605333</v>
       </c>
       <c r="R8">
-        <v>479.061837597888</v>
+        <v>13.561565738448</v>
       </c>
       <c r="S8">
-        <v>0.02819282511666611</v>
+        <v>0.002797475255968625</v>
       </c>
       <c r="T8">
-        <v>0.02819282511666611</v>
+        <v>0.002797475255968625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H9">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I9">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J9">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>53.47845945052489</v>
+        <v>122.8358990294551</v>
       </c>
       <c r="R9">
-        <v>481.306135054724</v>
+        <v>1105.523091265096</v>
       </c>
       <c r="S9">
-        <v>0.02832490219053118</v>
+        <v>0.2280469344294148</v>
       </c>
       <c r="T9">
-        <v>0.02832490219053118</v>
+        <v>0.2280469344294148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H10">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I10">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J10">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>2.568023951957889</v>
+        <v>9.450043816700665</v>
       </c>
       <c r="R10">
-        <v>23.112215567621</v>
+        <v>85.05039435030599</v>
       </c>
       <c r="S10">
-        <v>0.001360155621712372</v>
+        <v>0.01754416697113495</v>
       </c>
       <c r="T10">
-        <v>0.001360155621712372</v>
+        <v>0.01754416697113495</v>
       </c>
     </row>
   </sheetData>
